--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,13 +891,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
+    <t>(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ESET Research Whitepapers September 2018),(Citation: N/A),(Citation: Intel)</t>
+    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -909,13 +909,13 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014),(Citation: North America Transmission Forum December 2019)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: North America Transmission Forum December 2019),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018)</t>
+    <t>(Citation: Microsoft May 2017),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019),(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018)</t>
+    <t>(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,13 +891,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: IEC February 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
+    <t>(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: ESET Research Whitepapers September 2018),(Citation: Intel),(Citation: N/A)</t>
+    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -909,13 +909,13 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
+  </si>
+  <si>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019)</t>
+    <t>(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019)</t>
+    <t>(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,19 +891,19 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: National Security Agency February 2016),(Citation: Emerson Exchange),(Citation: IEC February 2019)</t>
+    <t>(Citation: National Security Agency February 2016),(Citation: IEC February 2019),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: North America Transmission Forum December 2019),(Citation: N/A),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018)</t>
+    <t>(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -897,13 +897,13 @@
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: Intel),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
+    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: North America Transmission Forum December 2019),(Citation: N/A),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: North America Transmission Forum December 2019)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Colin Gray),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019)</t>
+    <t>(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,13 +891,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: National Security Agency February 2016),(Citation: IEC February 2019),(Citation: Emerson Exchange)</t>
+    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: Intel),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A)</t>
+    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -909,13 +909,13 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
-  </si>
-  <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Keith Stouffer May 2015),(Citation: North America Transmission Forum December 2019)</t>
+    <t>(Citation: North America Transmission Forum December 2019),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: N/A),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Langner November 2018),(Citation: Colin Gray),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019),(Citation: Josh Rinaldi April 2016)</t>
+    <t>(Citation: Aditya K Sood July 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,31 +891,31 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
+    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: ESET Research Whitepapers September 2018),(Citation: Intel)</t>
+    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
   </si>
   <si>
-    <t>(Citation: Department of Homeland Security October 2009),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Department of Homeland Security October 2009)</t>
   </si>
   <si>
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia)</t>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: North America Transmission Forum December 2019),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: N/A),(Citation: Department of Homeland Security September 2016),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Aditya K Sood July 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: D. Parsons and D. Wylie September 2019)</t>
+    <t>(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -891,13 +891,13 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
+    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: N/A),(Citation: Intel),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -912,10 +912,10 @@
     <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
-  </si>
-  <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
+  </si>
+  <si>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017)</t>
+    <t>(Citation: Microsoft February 2019),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: D. Parsons and D. Wylie September 2019)</t>
+    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,7 +891,7 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: Emerson Exchange),(Citation: National Security Agency February 2016),(Citation: IEC February 2019)</t>
+    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
@@ -915,7 +915,7 @@
     <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia)</t>
+    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Dwight Anderson 2014),(Citation: Keith Stouffer May 2015),(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016)</t>
+    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: N/A)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft February 2019),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Microsoft August 2018),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019),(Citation: Langner November 2018),(Citation: Colin Gray)</t>
+    <t>(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -897,7 +897,7 @@
     <t>(Citation: MITRE June 2020)</t>
   </si>
   <si>
-    <t>(Citation: Intel),(Citation: N/A),(Citation: ESET Research Whitepapers September 2018)</t>
+    <t>(Citation: Intel),(Citation: ESET Research Whitepapers September 2018),(Citation: N/A)</t>
   </si>
   <si>
     <t>(Citation: CISA March 2010)</t>
@@ -912,10 +912,10 @@
     <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: National Institute of Standards and Technology April 2013)</t>
-  </si>
-  <si>
-    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
+  </si>
+  <si>
+    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: North America Transmission Forum December 2019),(Citation: Department of Homeland Security September 2016),(Citation: Keith Stouffer May 2015),(Citation: Dwight Anderson 2014),(Citation: N/A)</t>
+    <t>(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: Microsoft August 2018),(Citation: Microsoft May 2017),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: National Institute of Standards and Technology April 2013)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: Colin Gray),(Citation: Josh Rinaldi April 2016),(Citation: Langner November 2018),(Citation: D. Parsons and D. Wylie September 2019),(Citation: Aditya K Sood July 2019)</t>
+    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>

--- a/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
+++ b/versions/v15/docs/ics-attack-v15.1/ics-attack-v15.1-mitigations.xlsx
@@ -882,7 +882,7 @@
     <t>(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Schweitzer Engineering Laboratories August 2015)</t>
+    <t>(Citation: Schweitzer Engineering Laboratories August 2015),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: CISA June 2013)</t>
@@ -891,7 +891,7 @@
     <t>(Citation: Dan Goodin March 2017)</t>
   </si>
   <si>
-    <t>(Citation: IEC February 2019),(Citation: National Security Agency February 2016),(Citation: Emerson Exchange)</t>
+    <t>(Citation: IEC February 2019),(Citation: Emerson Exchange),(Citation: National Security Agency February 2016)</t>
   </si>
   <si>
     <t>(Citation: MITRE June 2020)</t>
@@ -909,13 +909,13 @@
     <t>(Citation: Department of Homeland Security September 2016)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Bastille April 2017)</t>
+    <t>(Citation: Bastille April 2017),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015)</t>
   </si>
   <si>
-    <t>(Citation: Wikipedia),(Citation: Microsoft Security Response Center August 2017),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
+    <t>(Citation: Microsoft Security Response Center August 2017),(Citation: Wikipedia),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: A G Foord, W G Gulland, C R Howard, T Kellacher, W H Smith 2004)</t>
@@ -927,19 +927,19 @@
     <t>(Citation: Gardiner, J.,  Cova, M., Nagaraja, S February 2014)</t>
   </si>
   <si>
-    <t>(Citation: Keith Stouffer May 2015),(Citation: Karen Scarfone; Paul Hoffman September 2009),(Citation: Department of Homeland Security September 2016),(Citation: N/A),(Citation: North America Transmission Forum December 2019),(Citation: Dwight Anderson 2014)</t>
+    <t>(Citation: Dwight Anderson 2014),(Citation: North America Transmission Forum December 2019),(Citation: N/A),(Citation: Keith Stouffer May 2015),(Citation: Department of Homeland Security September 2016),(Citation: Karen Scarfone; Paul Hoffman September 2009)</t>
   </si>
   <si>
     <t>(Citation: National Institute of Standards and Technology April 2013)</t>
   </si>
   <si>
-    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Keith Stouffer May 2015),(Citation: Microsoft May 2017),(Citation: Microsoft February 2019),(Citation: Microsoft August 2018)</t>
+    <t>(Citation: National Institute of Standards and Technology April 2013),(Citation: Microsoft August 2018),(Citation: Keith Stouffer May 2015),(Citation: Microsoft February 2019),(Citation: Microsoft May 2017)</t>
   </si>
   <si>
     <t>(Citation: M. Rentschler and H. Heine)</t>
   </si>
   <si>
-    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Josh Rinaldi April 2016),(Citation: Aditya K Sood July 2019)</t>
+    <t>(Citation: D. Parsons and D. Wylie September 2019),(Citation: Josh Rinaldi April 2016),(Citation: Colin Gray),(Citation: Langner November 2018),(Citation: Aditya K Sood July 2019)</t>
   </si>
   <si>
     <t>(Citation: Robert A. Martin January 2021)</t>
